--- a/ЕГЭ Леонид Воронков.xlsx
+++ b/ЕГЭ Леонид Воронков.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C01A0A-5274-498E-A7EE-5616D6241736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43356CA5-FC43-43FB-AFE9-29735ED50C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,7 +566,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -607,9 +608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="6" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,10 +642,25 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="8" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="7" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="8" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="6" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,6 +696,1459 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>395618</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F7BF97-F508-4607-8120-2AF9507EC56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3927475" y="457199"/>
+          <a:ext cx="17194543" cy="8334376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C134C307-0BBE-4864-849E-D65E53A17CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6721475" y="904874"/>
+          <a:ext cx="2308225" cy="4625973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>268920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F018BFA4-69AB-4202-8458-5B3BAB1D5546}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8783280" y="3081960"/>
+            <a:ext cx="629640" cy="2022840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F018BFA4-69AB-4202-8458-5B3BAB1D5546}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8774280" y="3072960"/>
+              <a:ext cx="647280" cy="2040480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C957ADAD-489D-4BD8-BC6B-66C3761C68AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9965520" y="3052440"/>
+            <a:ext cx="251280" cy="293760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C957ADAD-489D-4BD8-BC6B-66C3761C68AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9956520" y="3043800"/>
+              <a:ext cx="268920" cy="311400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>113640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BD6023-4370-4DA6-9269-200F53BD39F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9867240" y="1528920"/>
+            <a:ext cx="246240" cy="195840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BD6023-4370-4DA6-9269-200F53BD39F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9858240" y="1519920"/>
+              <a:ext cx="263880" cy="213480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>248640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>491640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA60DF4-F5EE-464F-8CB7-48105B7F935B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10002240" y="4062240"/>
+            <a:ext cx="243000" cy="285840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA60DF4-F5EE-464F-8CB7-48105B7F935B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9993600" y="4053240"/>
+              <a:ext cx="260640" cy="303480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>227520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>178320</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE970C9-579B-47EA-AF04-4C819CFCC51B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6315120" y="2009520"/>
+            <a:ext cx="3056400" cy="73800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE970C9-579B-47EA-AF04-4C819CFCC51B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6306480" y="2000520"/>
+              <a:ext cx="3074040" cy="91440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17460</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEAC848-CB7F-43B6-9776-170FBA431604}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6779520" y="5001480"/>
+            <a:ext cx="126000" cy="159480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEAC848-CB7F-43B6-9776-170FBA431604}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6770880" y="4992480"/>
+              <a:ext cx="143640" cy="177120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>75660</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FEE318-7044-4CDF-A7A7-79D883A6D754}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8046720" y="819360"/>
+            <a:ext cx="135360" cy="208800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FEE318-7044-4CDF-A7A7-79D883A6D754}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8038080" y="810720"/>
+              <a:ext cx="153000" cy="226440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>212520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>462655</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82195</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD5EE02E-0E9F-47AB-B9E4-85961C267FEF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12404520" y="1441375"/>
+            <a:ext cx="250135" cy="355320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD5EE02E-0E9F-47AB-B9E4-85961C267FEF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12395522" y="1432384"/>
+              <a:ext cx="267770" cy="372942"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>172500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2DD12F-AD41-4560-8082-17318CC48C88}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7594920" y="904320"/>
+            <a:ext cx="140040" cy="220680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2DD12F-AD41-4560-8082-17318CC48C88}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7586280" y="895320"/>
+              <a:ext cx="157680" cy="238320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE445C0-ED3C-4275-8F9C-1B802F5FC088}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11252160" y="3552120"/>
+            <a:ext cx="291600" cy="308880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE445C0-ED3C-4275-8F9C-1B802F5FC088}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11243520" y="3543480"/>
+              <a:ext cx="309240" cy="326520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>146760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>492360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECC7500-FBD9-4EF7-8756-7ED23E2967C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13557960" y="3601440"/>
+            <a:ext cx="345600" cy="292680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECC7500-FBD9-4EF7-8756-7ED23E2967C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13549320" y="3592800"/>
+              <a:ext cx="363240" cy="310320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>157320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572BB1B9-5ABC-45BF-9F4F-52F048C00BD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11130120" y="4143240"/>
+            <a:ext cx="374760" cy="262080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572BB1B9-5ABC-45BF-9F4F-52F048C00BD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11121120" y="4134600"/>
+              <a:ext cx="392400" cy="279720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>199320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>113340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28F450F-57AD-4FEE-8636-EDAF051073F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13610520" y="1446840"/>
+            <a:ext cx="426600" cy="244800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28F450F-57AD-4FEE-8636-EDAF051073F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13601880" y="1438200"/>
+              <a:ext cx="444240" cy="262440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>173160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>402480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97740</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40000217-FA03-4926-A1CB-04B1E2DB2BA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11145960" y="1502935"/>
+            <a:ext cx="229320" cy="309305"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40000217-FA03-4926-A1CB-04B1E2DB2BA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11137320" y="1494293"/>
+              <a:ext cx="246960" cy="326949"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:21:43.484"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 5547 120 0 0,'-2'-3'3254'0'0,"-1"0"-1081"0"0,2 4-2012 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-2 1 0 0 0,4-1 57 0 0,-25 3 3670 0 0,24-2-3790 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 235 0 0,-15 0 2200 0 0,10 0-1645 0 0,9 0-19 0 0,-3 0-164 0 0,-1 0-616 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,35 13 1405 0 0,-24-11-1274 0 0,1-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,18 0 0 0 0,-14-1 21 0 0,0 0 1 0 0,21 4 0 0 0,-18-1-61 0 0,0-1 1 0 0,29 0-1 0 0,51-5 312 0 0,-34 3-299 0 0,5-3 19 0 0,0 0-107 0 0,40-6-48 0 0,-97 8-34 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,20-6 0 0 0,10-11 144 0 0,-38 19-151 0 0,0 1-1 0 0,0-2 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,3-4-1 0 0,5-9 82 0 0,-8 13-78 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,3-4 1 0 0,12-58 259 0 0,8-23 109 0 0,2-26 170 0 0,-20 92-461 0 0,-4 15-59 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-10 0 0 0,0 7 6 0 0,1 0 0 0 0,0 0 0 0 0,6-22 0 0 0,-5 22-8 0 0,0 1 0 0 0,0-1 0 0 0,0-23 0 0 0,7-91 58 0 0,-10 83-95 0 0,-9-64 0 0 0,4 49 0 0 0,-1-31 0 0 0,-8-5 0 0 0,10 61 0 0 0,1 6 0 0 0,-11-41 0 0 0,12 57 0 0 0,0-1 0 0 0,-1-18 0 0 0,3 19 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-3-12 0 0 0,3 14 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-17 0 0 0,-2-5 0 0 0,-7-80 0 0 0,9 88 0 0 0,-4-11 0 0 0,2 19 0 0 0,1 1 0 0 0,-2-28 0 0 0,-1-5 0 0 0,-1-12 0 0 0,1-79 0 0 0,0 24 0 0 0,0-4 0 0 0,5-100 0 0 0,5 140 0 0 0,0-3 0 0 0,0 2 0 0 0,5-76 0 0 0,-5 86 0 0 0,-3 45 0 0 0,6-42 0 0 0,-3 43 0 0 0,0-44 0 0 0,0 1 0 0 0,5-72 0 0 0,-5 3 0 0 0,0 30 0 0 0,-5 59 0 0 0,-1 15 0 0 0,1 0 0 0 0,6-38 0 0 0,-4 48 0 0 0,-1 0 0 0 0,-1-31 0 0 0,-1 32 0 0 0,1 0 0 0 0,4-38 0 0 0,0 28 0 0 0,-2 0 0 0 0,-2-57 0 0 0,-2 30 0 0 0,-8-45 0 0 0,0 3 0 0 0,10 80 0 0 0,-7-31 0 0 0,4 31 0 0 0,-2-31 0 0 0,0-52 0 0 0,5-162 0 0 0,5 145 0 0 0,5-8 0 0 0,-5-11 0 0 0,5 63 0 0 0,0 30 0 0 0,-9 39 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,3-7 0 0 0,-3 7 0 0 0,5-5 0 0 0,-6 9 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,4-5 0 0 0,2-3 0 0 0,-5 7 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,6-3 0 0 0,3-2 0 0 0,-8 1 0 0 0,-5 5 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,67-31 0 0 0,-63 28 0 0 0,19-2 0 0 0,-17 3 0 0 0,50-3 0 0 0,11 2 0 0 0,-43 1 0 0 0,-1 0 0 0 0,49 6 0 0 0,-52-3 0 0 0,-1 0 0 0 0,26-2 0 0 0,-7 0 0 0 0,-31 2 0 0 0,42 1 0 0 0,-46-2 0 0 0,0 0 0 0 0,3-1 0 0 0,-1 3 0 0 0,-7 0 0 0 0,-5-2 0 0 0,4 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-2-1 0 0 0,-5-1 0 0 0,4 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-5-3 0 0 0,-12-5 0 0 0,-69-34 0 0 0,66 30 0 0 0,18 11 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-14-4 0 0 0,1-3 0 0 0,19 8 0 0 0,4 2 0 0 0,4 5 0 0 0,4 2 0 0 0,33 13 0 0 0,35 10 0 0 0,0 0 0 0 0,-75-29 0 0 0,-4 1 0 0 0,2-2 0 0 0,-3 0 0 0 0,-14 4 0 0 0,-21 1 0 0 0,29-4 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-13 3 0 0 0,7 0 0 0 0,-12 4 0 0 0,-40 22 0 0 0,59-28 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-4 4 0 0 0,3 0 0 0 0,14-16 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,13-7 0 0 0,-4 3 0 0 0,51-30 0 0 0,-24 11 0 0 0,-43 28 0 0 0,-7 1 0 0 0,3 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-7-4 0 0 0,4 3 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-9-8 0 0 0,0 1 0 0 0,7 7 0 0 0,5 2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-3-3 0 0 0,3 2 0 0 0,-4 1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,3-2 0 0 0,-4 0 0 0 0,0 1 0 0 0,1 1 0 0 0,3-1 0 0 0,-4 1 0 0 0,2 1 0 0 0,6 0 0 0 0,1 0 0 0 0,-7 1 0 0 0,2 1 0 0 0,-3-1 0 0 0,3 1 0 0 0,1 109 0 0 0,0-108 0 0 0,-4-2 0 0 0,3 1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-4 0 0 0,1-11 0 0 0,-1 11 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3-4 0 0 0,4 5 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 12 0 0 0,-2-3 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 13 0 0 0,-8 16 0 0 0,10-99 0 0 0,0 61 0 0 0,0 11 0 0 0,0 62 0 0 0,-1-58 0 0 0,-3 22 0 0 0,4-32 0 0 0,-3-3 0 0 0,6 0 0 0 0,12-10 0 0 0,-2 2 0 0 0,0 1 0 0 0,16-7 0 0 0,46-9 0 0 0,-50 20 0 0 0,-19 2 0 0 0,23-2 0 0 0,-24 3 0 0 0,1-2 0 0 0,12-3 0 0 0,18 3 0 0 0,-31 3 0 0 0,-5 1 0 0 0,-5 1 0 0 0,-144 42 0 0 0,114-32 0 0 0,5-1 0 0 0,9-3 0 0 0,16-7 0 0 0,-7 4 0 0 0,11-5 0 0 0,5-4 0 0 0,0 2 0 0 0,56-23 0 0 0,20-3 0 0 0,-75 25 0 0 0,-5 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-66 39 0 0 0,57-33 0 0 0,8-6 0 0 0,3 0 0 0 0,-3-3 0 0 0,3-3 0 0 0,1 0 0 0 0,3-17 0 0 0,-3 18 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3 0 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-13 0 0 0,0-15 0 0 0,2-41 0 0 0,-4 73 0 0 0,3 0 0 0 0,-3 1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,37 9 0 0 0,69 10 0 0 0,-82-19 0 0 0,10 4 0 0 0,-31-6 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,5 3 0 0 0,-7-3 0 0 0,16 0 0 0 0,-13 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5 1 0 0 0,-4-1 0 0 0,3 1 0 0 0,-23 13 0 0 0,14-8 0 0 0,0-1 0 0 0,0 0 0 0 0,-21 9 0 0 0,-58 27 0 0 0,59-27 0 0 0,-6 2 0 0 0,2-2 0 0 0,9-5 0 0 0,24-9 0 0 0,1-3 0 0 0,1 0 0 0 0,9-5-3926 0 0,-61-17-24095 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:23:38.142"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">116 182 176 0 0,'1'-3'403'0'0,"0"1"0"0"0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-2-4 0 0 0,2 5-208 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 655 0 0,-12 8 1813 0 0,4 10-1364 0 0,-1 2-672 0 0,1 0 0 0 0,0 0 1 0 0,2 1-1 0 0,0 0 0 0 0,-6 24 0 0 0,11-28-507 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,7 16-1 0 0,1-3 12 0 0,1-1-1 0 0,2 0 1 0 0,1-1-1 0 0,1-1 1 0 0,1 0-1 0 0,29 32 1 0 0,-31-41-16 0 0,0-1 0 0 0,0-1 0 0 0,2 0 0 0 0,25 16 0 0 0,-35-26-31 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,12-1-1 0 0,-5-2 69 0 0,0 0 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0-2 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 1 0 0,0 0-1 0 0,17-20 0 0 0,-12 10 93 0 0,-6 8-91 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-16 1 0 0,-5 5 20 0 0,-1-1-1 0 0,-2 0 1 0 0,0 0 0 0 0,-2-1 0 0 0,-1-1 0 0 0,4-30 0 0 0,-10 43-76 0 0,0-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-15-28 0 0 0,13 33-78 0 0,0 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-2 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-25-6-1 0 0,11 5-225 0 0,1 1-1 0 0,0 1 1 0 0,-1 1-1 0 0,0 2 1 0 0,0 1-1 0 0,1 0 1 0 0,-44 8-1 0 0,50-4-728 0 0,-1 0-1 0 0,1 1 1 0 0,1 1-1 0 0,-1 1 0 0 0,1 1 1 0 0,-29 17-1 0 0,39-21 57 0 0,1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-5 14 0 0 0,1 22-2320 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:23:39.268"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">206 123 720 0 0,'14'-13'7672'0'0,"-8"11"-3833"0"0,-11 15-2007 0 0,-3 5-1008 0 0,1 1-1 0 0,0 0 0 0 0,2 0 0 0 0,0 0 1 0 0,2 1-1 0 0,-4 38 0 0 0,-1 9 606 0 0,5-48-1252 0 0,2 0-1 0 0,0 0 1 0 0,1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,2 0-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,2 0 1 0 0,0-1-1 0 0,1 0 1 0 0,17 25-1 0 0,-19-31-110 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,25-4-1 0 0,-15 1 42 0 0,0-2 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1-2 0 0 0,35-19-1 0 0,-40 19 12 0 0,-1-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-2 0 0 0,-1 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,9-17-1 0 0,-8 10-15 0 0,-1 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,5-32 0 0 0,-9 37-33 0 0,-1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,-12-29 1 0 0,12 37-52 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,-10-7-1 0 0,6 7-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-20-2 1 0 0,3 3-290 0 0,1 2 0 0 0,-1 1 0 0 0,0 1 1 0 0,1 1-1 0 0,-1 2 0 0 0,1 1 1 0 0,0 2-1 0 0,-31 11 0 0 0,25-5-1726 0 0,0 2 0 0 0,-44 25 0 0 0,54-25-251 0 0,0 2 1 0 0,1 0-1 0 0,1 2 0 0 0,1 0 0 0 0,1 1 1 0 0,-23 29-1 0 0,4 4-1199 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:24:55.067"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">435 136 164 0 0,'-1'-2'184'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,2-3-1 0 0,-1 5-116 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 119 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,2 0-132 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-9 11 1858 0 0,8-10-1609 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 3-1 0 0,2-1 56 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-3 5 1 0 0,2-5-147 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-2 7 0 0 0,-3 69 1492 0 0,5-52-1463 0 0,-1-6-129 0 0,1 0 1 0 0,2 0-1 0 0,0-1 0 0 0,5 24 1 0 0,1-11-31 0 0,-6-22-51 0 0,0 0-1 0 0,1 0 1 0 0,1 0 0 0 0,6 14 0 0 0,3 5 33 0 0,-10-24-39 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,8 11-1 0 0,0-3 49 0 0,-8-10-21 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,7 4 1 0 0,8 1 19 0 0,1-1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0-1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-2 0 0 0,39-8 0 0 0,-52 8-25 0 0,-1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-2 1 0 0,0 1 0 0 0,0-1-1 0 0,7-6 1 0 0,3-5 174 0 0,29-36 1 0 0,-46 52-217 0 0,7-11 35 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,3-17 1 0 0,-2 9-1 0 0,0 0 2 0 0,-1-1-1 0 0,-1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,-2 0 0 0 0,0 1 1 0 0,-2-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-10-28 1 0 0,8 33 5 0 0,0 1 1 0 0,-15-25-1 0 0,8 17-21 0 0,9 16-13 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-8-5 0 0 0,-2 0 34 0 0,-35-16 0 0 0,39 21-45 0 0,1 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-17 1 0 0 0,10 1-13 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-25 9 0 0 0,23-4-164 0 0,1 1-1 0 0,1 1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-34 28-1 0 0,-83 83-4180 0 0,121-106 3497 0 0,-47 47-5441 0 0,3 2 0 0 0,-62 88 0 0 0,77-90 3151 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:27:20.260"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 297 216 0 0,'-10'-27'7174'0'0,"8"22"-7465"0"0,-5-13 14909 0 0,10 26-11516 0 0,-2-2-2797 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,0 7-1 0 0,2 7 103 0 0,3 11-23 0 0,1-1 1 0 0,2 0 0 0 0,1 0-1 0 0,22 47 1 0 0,19 46 1002 0 0,-49-119-1284 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 3 0 0 0,-5-6-75 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,20-18 559 0 0,-21 18-586 0 0,21-22-2 0 0,-1-2 0 0 0,29-45 0 0 0,-16 21 0 0 0,10-14 0 0 0,31-42 0 0 0,-75 105 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 2 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 4 0 0 0,0-4 0 0 0,5 16 0 0 0,11 29 0 0 0,36 70 0 0 0,-48-108 0 0 0,-5-7 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,6 5 0 0 0,-8-8 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2-2 0 0 0,7-3 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,9-12 0 0 0,6-8 0 0 0,18-33 0 0 0,46-87 0 0 0,42-62 0 0 0,-125 205-574 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,7-6-1 0 0,-8 8-560 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,9 2 1 0 0,-8 0 260 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,11 5 0 0 0,8 9-1954 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:27:18.241"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">141 93 296 0 0,'7'-20'2617'0'0,"-4"7"-1616"0"0,1 5-6 0 0,2-11 2409 0 0,-3 8-530 0 0,-1-2 1906 0 0,-6 5 2386 0 0,7 10-6341 0 0,5 26-39 0 0,67 173 1117 0 0,-27-61-1308 0 0,-33-103-335 0 0,1-1 0 0 0,32 51 0 0 0,-6-5 181 0 0,-9-30-49 0 0,-26-45 30 0 0,-3-29-19554 0 0,-4-11 11626 0 0,0 15 4959 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="585.37">636 87 284 0 0,'0'-1'463'0'0,"1"0"0"0"0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-10-6 9167 0 0,-2 10-7183 0 0,-41 55 2096 0 0,-3 3-3203 0 0,-317 419 1925 0 0,373-478-3321 0 0,-80 122-525 0 0,53-67-5613 0 0,18-38-273 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:22:00.898"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">120 145 212 0 0,'9'-5'3042'0'0,"3"-5"5414"0"0,-13 10-8191 0 0,-8 13 1189 0 0,-2 6-423 0 0,6-13-786 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-3 12-1 0 0,-8 17 472 0 0,11-30-559 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-2 9-1 0 0,0 4 305 0 0,2 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,1-1 0 0 0,4 37 0 0 0,2-12 129 0 0,-2-16-265 0 0,1 0 0 0 0,10 34 0 0 0,-10-47-218 0 0,5 12 133 0 0,9 9 143 0 0,-16-27-267 0 0,2-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,9 12-1 0 0,-8-13-12 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,15 5-1 0 0,-14-6-46 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,11-8 0 0 0,-10 5-6 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,10-10 0 0 0,3-6 61 0 0,20-30 0 0 0,-32 39-43 0 0,15-31 0 0 0,-1 1 54 0 0,-16 31-63 0 0,-1 0 1 0 0,-1-1-1 0 0,7-25 1 0 0,3-6 54 0 0,-13 35-77 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1 1 1 0 0,-1-17-1 0 0,0 2 0 0 0,0 15-23 0 0,0 0 1 0 0,-2 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-1 1 0 0 0,-8-19-1 0 0,7 21-10 0 0,1 1 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-11-8 0 0 0,-8-10-4 0 0,14 16-6 0 0,0-1 1 0 0,-1 2 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 1 0 0 0,1 0-1 0 0,0 1 1 0 0,-17-5 0 0 0,5 1-9 0 0,5 3-1 0 0,0 2 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 1-1 0 0,-26 1 1 0 0,33 1 4 0 0,1 0 0 0 0,-1 1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 1 1 0 0,-20 12 0 0 0,26-14 9 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-3 7 0 0 0,-4 10 23 0 0,-11 38 1 0 0,16-38-25 0 0,1 0-1 0 0,1 0 0 0 0,1 1 1 0 0,1 46-1 0 0,1-42-5 0 0,2 2-278 0 0,-1 4-2324 0 0,-1-30 1474 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 3 0 0 0,1 2-2373 0 0,2-8 2511 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-3 3 1 0 0,-2 1-2048 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:22:09.488"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13 0 744 0 0,'-5'6'14743'0'0,"17"-8"-11234"0"0,17 8-3355 0 0,0 0 1 0 0,0-2-1 0 0,45 0 0 0 0,18 2-137 0 0,39 2 23 0 0,-2-1 22 0 0,-109-6-60 0 0,-16-2-3 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,5 3 0 0 0,-8-4 4 0 0,0 2 43 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 2 1 0 0,-53 37 842 0 0,-194 115 207 0 0,201-120-985 0 0,-47 45 0 0 0,52-42-54 0 0,29-26-24 0 0,2-1 0 0 0,-1 2-1 0 0,2 0 1 0 0,0 0 0 0 0,-13 21 0 0 0,16-26 25 0 0,8-8-47 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-3-1 345 0 0,6 0-227 0 0,-3 0-48 0 0,16 0-47 0 0,60 1-39 0 0,117-5-23 0 0,92-13 134 0 0,-224 16-124 0 0,-60 2-278 0 0,26 7-6765 0 0,-26-8 6671 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 2 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:22:22.991"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 97 236 0 0,'-1'-1'266'0'0,"0"1"1"0"0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-3 1 1 0 0,-1-1 738 0 0,4 0-357 0 0,-9 3 4090 0 0,9 8-3814 0 0,0 1 0 0 0,-1-1 0 0 0,-6 22 0 0 0,5-22-582 0 0,0 1 1 0 0,0 0-1 0 0,-1 24 1 0 0,3 3 200 0 0,0-21-111 0 0,3 36 1 0 0,0-28-196 0 0,6 32 270 0 0,0-25-23 0 0,13 33 0 0 0,-16-54-278 0 0,0 1 1 0 0,2-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,15 18-1 0 0,1-1 208 0 0,-14-17-215 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,19 15 1 0 0,-7-7 363 0 0,-17-14-353 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,6 3 0 0 0,-2-3-100 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-2 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,9-10 1 0 0,-5 5-32 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,11-27 0 0 0,-8 17 18 0 0,-8 19-62 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,2-8-1 0 0,1-10 65 0 0,-2 16-54 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-4-16 0 0 0,-10-47 224 0 0,1 36-104 0 0,-34-64 0 0 0,39 84-117 0 0,-1 0 1 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-28-26 0 0 0,34 36-37 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-11 0 0 0 0,-12 1-22 0 0,-55 7 0 0 0,76-6-5 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,-13 12-1 0 0,13-9-333 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,2 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 13 0 0 0,0 8-2616 0 0,1 1 0 0 0,2-1-1 0 0,1 1 1 0 0,1 1 0 0 0,2-1 0 0 0,0 64-1 0 0,4-40 149 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:22:32.335"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">16 0 1352 0 0,'0'1'111'0'0,"0"-1"-1"0"0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-11 7 10774 0 0,17 2-6033 0 0,1-8-3668 0 0,-1 1 0 0 0,1-1-1 0 0,-1 2 1 0 0,9 5 0 0 0,-7-5-981 0 0,-1 1 1 0 0,1-1-1 0 0,13 5 0 0 0,53 13 479 0 0,2-3 0 0 0,1-3-1 0 0,95 8 1 0 0,260 6 417 0 0,0-25-308 0 0,47-29-322 0 0,-123 1-65 0 0,203 18-182 0 0,-46 1-151 0 0,-428 1 18 0 0,975-7 502 0 0,-680 13-593 0 0,8 0 72 0 0,305 2 2 0 0,-84-1-23 0 0,-382-2-48 0 0,138 5 0 0 0,735 41 0 0 0,-1010-43 0 0 0,123 2 0 0 0,-207-7 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,6-2 0 0 0,-12 4-54 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-16-2-3459 0 0,-118 5-11031 0 0,-73 7 4539 0 0,78-2 7206 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:23:07.150"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 278 924 0 0,'8'-5'3229'0'0,"15"-12"13423"0"0,-15 30-15160 0 0,17 30 399 0 0,-8-14-1357 0 0,-7-11-314 0 0,-5-8-114 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,13 14 0 0 0,-20-22-82 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,3 0 1 0 0,4-4 33 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,5-8-1 0 0,31-61 87 0 0,-29 50-117 0 0,-1 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-2-1 0 0 0,7-44 0 0 0,-5 16-563 0 0,-8 46-6 0 0,1-10-1281 0 0,-2 20 1739 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-41 31-10027 0 0,5 7 3842 0 0,20-15 3895 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:23:10.361"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 343 216 0 0,'2'-9'4353'0'0,"-2"9"-4268"0"0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,-1 1 2317 0 0,11 11 2946 0 0,-7-10-5241 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,1 3-1 0 0,-2-2 94 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,3 3-1 0 0,9 16 836 0 0,3 8 44 0 0,-1-7-501 0 0,-4-7-220 0 0,4 7-37 0 0,-10-14-220 0 0,-1-1 0 0 0,1 1 0 0 0,5 15 0 0 0,1-7 56 0 0,-10-15-104 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-2 128 0 0,20-35 2130 0 0,-3 7-2218 0 0,-2-1-1 0 0,0 0 1 0 0,16-50-1 0 0,-9 24-353 0 0,12-45-1649 0 0,-5-2-5592 0 0,2-7-6607 0 0,-25 86 11198 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:23:33.260"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 752 0 0,'0'0'1009'0'0,"9"3"1350"0"0,-2 11-1152 0 0,-4-6 290 0 0,10 4 10075 0 0,-5-10-5856 0 0,-8-1-5629 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-2 0-57 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 2-1 0 0,25 19 1226 0 0,-24-20-1186 0 0,-1 0-59 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 1 0 0,4 6 93 0 0,-3-6-91 0 0,2 0 53 0 0,-5 0-6 0 0,1 0-62 0 0,10 21 60 0 0,-8-15-46 0 0,0-6-11 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 37 0 0,2 0-52 0 0,2 0 18 0 0,-2 0 34 0 0,0 0-14 0 0,-2 0-26 0 0,6 4-11 0 0,-5 1 20 0 0,0-4-5 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 12 0 0,0-1 8 0 0,4 15 491 0 0,-5-15-484 0 0,11 16 379 0 0,8 17-65 0 0,-17-31-328 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 2 1 0 0,7 19 105 0 0,27 44 157 0 0,5 8 1 0 0,-20-35-167 0 0,9 28 109 0 0,-22-51-157 0 0,1 0 5 0 0,-4-7-1 0 0,-4-11-68 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-178 0 0,0-1-121 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,3-2-1 0 0,7-7-2238 0 0,13-16-8042 0 0,37-33 1 0 0,-46 46 8010 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="883.27">679 30 736 0 0,'15'-17'7065'0'0,"-17"17"-6538"0"0,-6 10 6741 0 0,7-9-6328 0 0,-4 7 237 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-6 16 1 0 0,-7 16 413 0 0,-42 79 486 0 0,-72 117-705 0 0,76-143-1045 0 0,-4 5-39 0 0,45-74-189 0 0,-22 28 0 0 0,-10 18 79 0 0,24-42-90 0 0,18-26-69 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-5 9 0 0 0,-3 1 45 0 0,9-13-58 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,-5 8 77 0 0,6-11-78 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 60 0 0,3-1-1399 0 0,-9 0-2291 0 0,-27 10-7381 0 0,1 5 4767 0 0,2-1 2929 0 0,-18 4 183 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-15T13:23:36.523"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 386 212 0 0,'-2'-8'5199'0'0,"-1"-8"-3095"0"0,8-2 3940 0 0,-8 19-5377 0 0,5 1-422 0 0,9 22 703 0 0,-11-19-805 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,3 8 1 0 0,4 14 471 0 0,-3 4 187 0 0,2 1 0 0 0,12 31 0 0 0,-17-50-477 0 0,1 3 230 0 0,0-8-287 0 0,5 4 2701 0 0,-8-12-2910 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,116-221 1009 0 0,2-26-4064 0 0,-94 192 505 0 0,-11 26-359 0 0,1-1-3560 0 0,-14 31 6234 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-5 3-2709 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1496,17 +2962,17 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="15"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="16"/>
-    <col min="4" max="4" width="6" style="15"/>
-    <col min="5" max="5" width="6" style="33"/>
-    <col min="6" max="6" width="6.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="16"/>
     <col min="8" max="8" width="6" style="15"/>
     <col min="9" max="10" width="6" style="16"/>
@@ -1518,184 +2984,191 @@
     <col min="16" max="16" width="6" style="16"/>
     <col min="17" max="17" width="6" style="15"/>
     <col min="18" max="18" width="6" style="16"/>
-    <col min="19" max="19" width="6" style="28"/>
+    <col min="19" max="19" width="6" style="27"/>
     <col min="20" max="20" width="6" style="16"/>
-    <col min="21" max="21" width="6" style="28"/>
+    <col min="21" max="21" width="6" style="27"/>
     <col min="22" max="22" width="6" style="16"/>
     <col min="23" max="23" width="6" style="15"/>
     <col min="24" max="24" width="6" style="16"/>
-    <col min="25" max="25" width="6" style="28"/>
-    <col min="26" max="26" width="6" style="29"/>
-    <col min="27" max="27" width="6" style="28"/>
+    <col min="25" max="25" width="6" style="27"/>
+    <col min="26" max="26" width="6" style="28"/>
+    <col min="27" max="27" width="6" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
-      <c r="B1" s="37">
+      <c r="B1" s="36">
         <v>1</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="23">
         <v>2</v>
       </c>
-      <c r="D1" s="37">
+      <c r="D1" s="36">
         <v>3</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="23">
         <v>4</v>
       </c>
-      <c r="F1" s="37">
+      <c r="F1" s="36">
         <v>5</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="23">
         <v>6</v>
       </c>
-      <c r="H1" s="37">
+      <c r="H1" s="36">
         <v>7</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="41">
         <v>8</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37">
+      <c r="J1" s="42"/>
+      <c r="K1" s="36">
         <v>9</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="23">
         <v>10</v>
       </c>
-      <c r="M1" s="37">
+      <c r="M1" s="36">
         <v>11</v>
       </c>
-      <c r="N1" s="24">
+      <c r="N1" s="23">
         <v>12</v>
       </c>
-      <c r="O1" s="37">
+      <c r="O1" s="36">
         <v>13</v>
       </c>
-      <c r="P1" s="24">
+      <c r="P1" s="23">
         <v>14</v>
       </c>
-      <c r="Q1" s="37">
+      <c r="Q1" s="36">
         <v>15</v>
       </c>
-      <c r="R1" s="24">
+      <c r="R1" s="23">
         <v>16</v>
       </c>
-      <c r="S1" s="37">
+      <c r="S1" s="36">
         <v>17</v>
       </c>
-      <c r="T1" s="24">
+      <c r="T1" s="23">
         <v>18</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="24">
+      <c r="V1" s="23">
         <v>22</v>
       </c>
-      <c r="W1" s="37">
+      <c r="W1" s="36">
         <v>23</v>
       </c>
-      <c r="X1" s="24">
+      <c r="X1" s="23">
         <v>24</v>
       </c>
-      <c r="Y1" s="37">
+      <c r="Y1" s="36">
         <v>25</v>
       </c>
-      <c r="Z1" s="24">
+      <c r="Z1" s="23">
         <v>26</v>
       </c>
-      <c r="AA1" s="37">
+      <c r="AA1" s="36">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="30" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="U2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="W2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="Z2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="37">
+        <v>45177</v>
+      </c>
+      <c r="B3" s="38">
+        <v>10279</v>
+      </c>
+      <c r="C3" s="39">
+        <v>18071</v>
+      </c>
       <c r="D3" s="20"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="20"/>
       <c r="G3" s="21"/>
       <c r="H3" s="20"/>
@@ -1705,25 +3178,27 @@
       <c r="L3" s="21"/>
       <c r="M3" s="20"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="32"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="26"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="21"/>
-      <c r="U3" s="26"/>
+      <c r="U3" s="25"/>
       <c r="V3" s="21"/>
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="26"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
+      <c r="C4" s="39">
+        <v>18550</v>
+      </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
       <c r="H4" s="20"/>
@@ -1737,21 +3212,28 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="26"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="26"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="21"/>
       <c r="W4" s="20"/>
       <c r="X4" s="21"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="26"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="25"/>
     </row>
     <row r="5" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>45184</v>
+      </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="39">
+        <v>35460</v>
+      </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="40">
+        <v>16434</v>
+      </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="20"/>
@@ -1765,21 +3247,23 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="26"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="26"/>
+      <c r="U5" s="25"/>
       <c r="V5" s="21"/>
       <c r="W5" s="20"/>
       <c r="X5" s="21"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="26"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="25"/>
     </row>
     <row r="6" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="40">
+        <v>35891</v>
+      </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="20"/>
@@ -1793,21 +3277,23 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="26"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="26"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="21"/>
       <c r="W6" s="20"/>
       <c r="X6" s="21"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="26"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="40">
+        <v>36857</v>
+      </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
@@ -1821,23 +3307,32 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="26"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="21"/>
-      <c r="U7" s="26"/>
+      <c r="U7" s="25"/>
       <c r="V7" s="21"/>
       <c r="W7" s="20"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="26"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="25"/>
     </row>
     <row r="8" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>45191</v>
+      </c>
       <c r="B8" s="20"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="31">
+        <v>37485</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="43">
+        <v>23904</v>
+      </c>
+      <c r="G8" s="21">
+        <v>59711</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -1849,22 +3344,24 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="20"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="26"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="26"/>
+      <c r="U8" s="25"/>
       <c r="V8" s="21"/>
       <c r="W8" s="20"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="26"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="25"/>
     </row>
     <row r="9" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="18"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31">
+        <v>57412</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
@@ -1877,21 +3374,21 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="26"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="26"/>
+      <c r="U9" s="25"/>
       <c r="V9" s="21"/>
       <c r="W9" s="20"/>
       <c r="X9" s="21"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="26"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="25"/>
     </row>
     <row r="10" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="18"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
@@ -1905,21 +3402,21 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="26"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="26"/>
+      <c r="U10" s="25"/>
       <c r="V10" s="21"/>
       <c r="W10" s="20"/>
       <c r="X10" s="21"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="26"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="25"/>
     </row>
     <row r="11" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="18"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="33"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
@@ -1933,21 +3430,21 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="26"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="26"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="21"/>
       <c r="W11" s="20"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="26"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="25"/>
     </row>
     <row r="12" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="18"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="20"/>
@@ -1961,21 +3458,21 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="26"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="21"/>
-      <c r="U12" s="26"/>
+      <c r="U12" s="25"/>
       <c r="V12" s="21"/>
       <c r="W12" s="20"/>
       <c r="X12" s="21"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="26"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="25"/>
     </row>
     <row r="13" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="20"/>
@@ -1989,21 +3486,21 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="26"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="21"/>
-      <c r="U13" s="26"/>
+      <c r="U13" s="25"/>
       <c r="V13" s="21"/>
       <c r="W13" s="20"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="26"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="25"/>
     </row>
     <row r="14" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
@@ -2017,21 +3514,21 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="26"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="26"/>
+      <c r="U14" s="25"/>
       <c r="V14" s="21"/>
       <c r="W14" s="20"/>
       <c r="X14" s="21"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="26"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="25"/>
     </row>
     <row r="15" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
@@ -2045,21 +3542,21 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="26"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="26"/>
+      <c r="U15" s="25"/>
       <c r="V15" s="21"/>
       <c r="W15" s="20"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="26"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="25"/>
     </row>
     <row r="16" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="18"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
@@ -2073,21 +3570,21 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="26"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="26"/>
+      <c r="U16" s="25"/>
       <c r="V16" s="21"/>
       <c r="W16" s="20"/>
       <c r="X16" s="21"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="26"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="25"/>
     </row>
     <row r="17" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
@@ -2101,21 +3598,21 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="26"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="26"/>
+      <c r="U17" s="25"/>
       <c r="V17" s="21"/>
       <c r="W17" s="20"/>
       <c r="X17" s="21"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="26"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="25"/>
     </row>
     <row r="18" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
@@ -2129,21 +3626,21 @@
       <c r="P18" s="21"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="26"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="21"/>
-      <c r="U18" s="26"/>
+      <c r="U18" s="25"/>
       <c r="V18" s="21"/>
       <c r="W18" s="20"/>
       <c r="X18" s="21"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="26"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="25"/>
     </row>
     <row r="19" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
@@ -2157,21 +3654,21 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="26"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="26"/>
+      <c r="U19" s="25"/>
       <c r="V19" s="21"/>
       <c r="W19" s="20"/>
       <c r="X19" s="21"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="26"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="25"/>
     </row>
     <row r="20" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
@@ -2185,21 +3682,21 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="26"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="26"/>
+      <c r="U20" s="25"/>
       <c r="V20" s="21"/>
       <c r="W20" s="20"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="26"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="25"/>
     </row>
     <row r="21" spans="2:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
@@ -2213,15 +3710,15 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="26"/>
+      <c r="S21" s="25"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="26"/>
+      <c r="U21" s="25"/>
       <c r="V21" s="21"/>
       <c r="W21" s="20"/>
       <c r="X21" s="21"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="26"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="25"/>
     </row>
     <row r="22" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="18"/>
@@ -2348,4 +3845,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2848E62-6E96-4C1D-9F8D-A175CD63F253}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>